--- a/Base/Teams/Eagles/Players Data w Sanders.xlsx
+++ b/Base/Teams/Eagles/Players Data w Sanders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Eagles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Eagles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_6CA569DB5E7103596D912737F5EA4577B1B61759" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A735BF4C-D71D-4515-A29B-5BC51FDEAF78}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_D428E9C3E101480757723A37F5EA457761BA11BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C8FFE3-4DCF-462A-A25D-AA5356E08241}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +52,9 @@
     <t>J.Hurts</t>
   </si>
   <si>
+    <t>G.Minshew</t>
+  </si>
+  <si>
     <t>M.Sanders</t>
   </si>
   <si>
@@ -50,9 +64,15 @@
     <t>K.Gainwell</t>
   </si>
   <si>
+    <t>J.Howard</t>
+  </si>
+  <si>
     <t>J.Reagor</t>
   </si>
   <si>
+    <t>Q.Watkins</t>
+  </si>
+  <si>
     <t>M.Walker</t>
   </si>
   <si>
@@ -77,13 +97,19 @@
     <t>D.Smith</t>
   </si>
   <si>
-    <t>Q.Watkins</t>
-  </si>
-  <si>
     <t>G.Ward</t>
   </si>
   <si>
+    <t>J.Arcega-Whiteside</t>
+  </si>
+  <si>
     <t>D.Goedert</t>
+  </si>
+  <si>
+    <t>J.Stoll</t>
+  </si>
+  <si>
+    <t>T.Jackson</t>
   </si>
 </sst>
 </file>
@@ -485,9 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -516,16 +544,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -536,16 +564,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -556,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -576,16 +604,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -596,16 +624,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,15 +644,75 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -635,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,22 +736,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,25 +759,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -697,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -712,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -723,13 +811,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>29</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -738,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,25 +837,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -775,25 +863,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -801,25 +889,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -827,25 +915,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,29 +941,130 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
